--- a/report_ca_nhan/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/report_ca_nhan/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/report_ca_nhan/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Đơn thu nợ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +415,377 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>529</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nguyễn thị hân</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>142</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-498</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/report_ca_nhan/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/report_ca_nhan/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,82 +456,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -566,59 +591,76 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Lê Đình Hậu</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>7000000</v>
-      </c>
-      <c r="J2" t="n">
-        <v/>
       </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
         <v>7000000</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>4000000</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>4000000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v/>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
-      </c>
-      <c r="T2" t="n">
-        <v/>
       </c>
       <c r="U2" t="n">
         <v/>
       </c>
       <c r="V2" t="n">
-        <v/>
+        <v>50000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>600000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -636,36 +678,49 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>7000000</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>7000000</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>4000000</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>4000000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>600000</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -786,14 +841,255 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ngày công</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phụ cấp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_ca_nhan/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/report_ca_nhan/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn thu nợ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,7 +592,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Tiểu phẫu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -620,13 +621,13 @@
         <v>4000000</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="P2" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="Q2" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -651,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>600000</v>
+        <v>910000</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -666,61 +667,475 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>553</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>557</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc My</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>558</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lê Thị Kiều</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>975000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>559</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lê Thị Kiều</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>600000</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>90000000</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>90000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>68500000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>76500000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>350000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>10585000</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -735,7 +1150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,12 +1166,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Mã dịch vụ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -766,32 +1181,132 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Ngày thu</t>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142</v>
+        <v>554</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-498</t>
+          <t>07-15-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -799,18 +1314,90 @@
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>2000000</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lê thị bích</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cắt sẹo </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>Lê Đình Hậu</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>07-07-2024</t>
-        </is>
+      <c r="L2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Thảo</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="n">
+        <v/>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>240000</v>
       </c>
     </row>
     <row r="3">
@@ -824,11 +1411,55 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>2000000</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>240000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -841,7 +1472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,6 +1483,335 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id đơn nợ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id sale chính</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id sale phụ</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06-30-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>c050b03e-22d0-4cdc-8e50-69d05748efc3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>142</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>45183006-5603-42d6-a5bf-0b84f7b03e93</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-498</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>c463b1a9-4fb2-4258-87a7-44193ba02405</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>545126c4-c319-4d90-a506-2627e3e232a0</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>260000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>260000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục</t>
         </is>
       </c>
@@ -866,7 +1826,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -876,7 +1836,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="4">
@@ -896,7 +1856,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5775000</v>
       </c>
     </row>
     <row r="6">
@@ -952,27 +1912,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -982,7 +1942,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -992,7 +1952,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1002,7 +1962,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1012,7 +1972,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1022,57 +1982,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3503571.428571429</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5070000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1082,11 +2042,81 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5775000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11788571.42857143</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>17563571.42857143</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/report_ca_nhan/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,107 +457,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -592,76 +527,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="H2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>7000000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>7000000</v>
       </c>
       <c r="M2" t="n">
-        <v>7000000</v>
+        <v>0.13</v>
       </c>
       <c r="N2" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>910000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -698,75 +586,26 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="H3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
       <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>30000000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
       <c r="L3" t="n">
-        <v/>
+        <v>30000000</v>
       </c>
       <c r="M3" t="n">
-        <v>30000000</v>
+        <v>0.13</v>
       </c>
       <c r="N3" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>3900000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -803,73 +642,26 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="H4" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
       <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
         <v>35000000</v>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
       <c r="L4" t="n">
-        <v/>
+        <v>32000000</v>
       </c>
       <c r="M4" t="n">
-        <v>35000000</v>
+        <v>0.15</v>
       </c>
       <c r="N4" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>4800000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -903,76 +695,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="H5" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
       <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
         <v>10000000</v>
       </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
       <c r="L5" t="n">
-        <v/>
+        <v>7500000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000000</v>
+        <v>0.13</v>
       </c>
       <c r="N5" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
         <v>975000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1006,75 +751,28 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Mở góc mắt</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="H6" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
       <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
         <v>8000000</v>
       </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
       <c r="L6" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>8000000</v>
+        <v>0.13</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Trương Lâm Khanh</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1092,51 +790,24 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>90000000</v>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>90000000</v>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>76500000</v>
       </c>
       <c r="M7" t="n">
-        <v>90000000</v>
+        <v>0.67</v>
       </c>
       <c r="N7" t="n">
-        <v>68500000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>76500000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>13500000</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>350000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>10585000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,105 +862,40 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
         <is>
           <t>Chiết khấu sale phụ</t>
         </is>
@@ -1326,139 +932,123 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Đại phẫu</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t xml:space="preserve">cắt sẹo </t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>7000000</v>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+        <v>6000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13000000</v>
       </c>
       <c r="L2" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000000</v>
+        <v>0.04</v>
       </c>
       <c r="N2" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Thảo</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Trần Khánh Hiệp</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="n">
-        <v/>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1060000</v>
-      </c>
-      <c r="AA2" t="n">
         <v>240000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>568</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1060000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>240000</v>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>360000</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,97 +1073,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Ngày thu</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>notion id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id đơn nợ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Đã thanh toán</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
+          <t>Chiết khấu sale chính</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -1583,210 +1173,181 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>id sale chính</t>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>id sale phụ</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>id bác sĩ 1</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>id bác sĩ 2</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-30-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>142</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>07-07-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>c050b03e-22d0-4cdc-8e50-69d05748efc3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>142</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>HD-LUXURY-498</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>45183006-5603-42d6-a5bf-0b84f7b03e93</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2000000</v>
+          <t>Treo cung</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị sen </t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-498</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Lê Đình Hậu</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>7000000</v>
+      </c>
       <c r="L2" t="n">
-        <v>7000000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v/>
       </c>
       <c r="N2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v/>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
-      <c r="Q2" t="n">
-        <v>5000000</v>
-      </c>
       <c r="R2" t="n">
-        <v>7000000</v>
+        <v>0.13</v>
       </c>
       <c r="S2" t="n">
-        <v>0.13</v>
+        <v>260000</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>c463b1a9-4fb2-4258-87a7-44193ba02405</t>
-        </is>
+      <c r="U2" t="n">
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>545126c4-c319-4d90-a506-2627e3e232a0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>260000</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
+      <c r="C3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2000000</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+      <c r="K3" t="n">
         <v>7000000</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>7000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7000000</v>
+      </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>5000000</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>7000000</v>
+        <v>0.13</v>
       </c>
       <c r="S3" t="n">
-        <v>0.13</v>
+        <v>260000</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>260000</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1801,7 +1362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1812,7 +1373,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -1912,7 +1473,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1922,27 +1483,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1952,7 +1513,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1962,7 +1523,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1972,7 +1533,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1982,7 +1543,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1992,7 +1553,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2002,57 +1563,57 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3503571.428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5070000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>240000</v>
+        <v>3503571.428571429</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4810000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2062,7 +1623,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2072,7 +1633,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2082,41 +1643,71 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5775000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11788571.42857143</v>
+        <v>-5000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5775000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4283571.428571429</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>17563571.42857143</v>
+      <c r="B34" t="n">
+        <v>10058571.42857143</v>
       </c>
     </row>
   </sheetData>
